--- a/Main Website/media/IDFC_HL/FOS Salary/BKT-WISE PAYOUT.xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/BKT-WISE PAYOUT.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,49 +496,39 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EMPLOYEE_ID</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_ID</t>
+          <t>MANAGER_ID</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>MANAGER_ID</t>
+          <t>DESIGNATION</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>DESIGNATION</t>
+          <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_STATUS</t>
+          <t>PROCESS</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>PROCESS</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
           <t>DEPARTMENT</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>DATE_OF_BIRTH</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>ANIKET</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -551,19 +537,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17804342.57</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -577,24 +563,46 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4950.08</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ANIKET</t>
+          <t>ANIL KUMAR PANDIT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -603,152 +611,142 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17804342.57</v>
+        <v>57922351.99</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>77.83</v>
       </c>
       <c r="G3" t="n">
-        <v>5.313099578267664</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
+        <v>26.18</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4950.08</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>3600</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>35637</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ANIL KUMAR PANDIT</t>
+          <t>BAL KRISHAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BKT1</t>
+          <t>BKT0</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57922351.99</v>
+        <v>132935974.29</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.82808705313417</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>26.17812281279222</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.777777777777778</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5377.81</v>
       </c>
       <c r="L4" t="n">
-        <v>3600</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P019</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>P138</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>32676</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BAL KRISHAN</t>
+          <t>BEENESH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -757,16 +755,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>132935974.29</v>
+        <v>85256635.95999999</v>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>89.99102146648885</v>
+        <v>93.72</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -781,50 +779,46 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5377.814499999999</v>
+        <v>6149.02</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>P019</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>32937</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BEENESH</t>
+          <t>DEEPAK SHARMA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -833,16 +827,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>85256635.95999998</v>
+        <v>18960886.93</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>93.72114226684766</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -857,44 +851,40 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6149.025000000001</v>
+        <v>3688.14</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P058</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>P111</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>33792</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -905,154 +895,146 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BKT0</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18960886.93</v>
+        <v>31466769.2</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F7" t="n">
-        <v>94.50619681534064</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>25.58</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>3688.14</v>
+        <v>7023.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>2000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>P058</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>P058</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>30239</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DEEPAK SHARMA</t>
+          <t>GIRJESH KUMAR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BKT1</t>
+          <t>BKT0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31466769.2</v>
+        <v>36876133.08</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>93.45573469296619</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>25.57604134332291</v>
+        <v>7.77</v>
       </c>
       <c r="H8" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>7023.699999999998</v>
+        <v>3249.23</v>
       </c>
       <c r="L8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>P058</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>30239</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GIRJESH KUMAR</t>
+          <t>INDERJEET SINGH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1061,19 +1043,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36876133.08</v>
+        <v>77125887.58</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>90.48752942075019</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>7.767919195284563</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1085,44 +1067,40 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>3249.229999999999</v>
+        <v>4883.16</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>P112</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>32920</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1133,26 +1111,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BKT0</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>77125887.58</v>
+        <v>13140403.62</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>96.2087833907039</v>
+        <v>92.41</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>29.77</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1161,50 +1139,46 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4883.16</v>
+        <v>2362.88</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>1500</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>21860</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDERJEET SINGH</t>
+          <t>MANOJ TOMAR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1213,22 +1187,24 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13140403.62</v>
+        <v>26857383.17</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>92.40737287185399</v>
+        <v>94.59</v>
       </c>
       <c r="G11" t="n">
-        <v>29.76894822352497</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3000</v>
+        <v>6.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Deduction of 10%</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1237,76 +1213,70 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2362.88</v>
+        <v>6152.26</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="n">
-        <v>21860</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MANOJ TOMAR</t>
+          <t>PRAMOD KUMAR DHOUNDIYAL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BKT1</t>
+          <t>BKT0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26857383.16999999</v>
+        <v>50478069.63</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>94.5887360253944</v>
+        <v>93.25</v>
       </c>
       <c r="G12" t="n">
-        <v>6.495079505543654</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1315,50 +1285,46 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>6152.259999999999</v>
+        <v>5513.91</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>P117</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="n">
-        <v>32793</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NO FOS</t>
+          <t>PRAMOD KUMAR DHOUNDIYAL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1367,50 +1333,70 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7468614.670000001</v>
+        <v>37074449.5</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
+        <v>17.16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1085.82</v>
+        <v>4066.64</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>P162</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>HL</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
+          <t>SHARWAN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1419,16 +1405,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>50478069.63</v>
+        <v>164416261.92</v>
       </c>
       <c r="D14" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>93.25372593492341</v>
+        <v>93.7</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1443,50 +1429,46 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>5513.905000000001</v>
+        <v>8841.35</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="n">
-        <v>26879</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PRAMOD KUMAR DHOUNDIYAL</t>
+          <t>SHARWAN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1495,74 +1477,70 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37074449.5</v>
+        <v>9629354.32</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>17.16211543478211</v>
+        <v>19.6</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>4066.639999999999</v>
+        <v>1827.16</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="n">
-        <v>26879</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SHARWAN</t>
+          <t>SOURAV KUMAR</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1571,16 +1549,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>164416261.92</v>
+        <v>84681870.48999999</v>
       </c>
       <c r="D16" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.69969557205951</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1595,50 +1573,46 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8841.354999999998</v>
+        <v>11015.58</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>P119</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="n">
-        <v>32417</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SHARWAN</t>
+          <t>SUBHASH CHAND</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1647,74 +1621,70 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9629354.32</v>
+        <v>30523530.78</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>19.59922583885147</v>
+        <v>20.03</v>
       </c>
       <c r="H17" t="n">
         <v>1000</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>9.09</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1827.16</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>P084</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>P119</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="n">
-        <v>32417</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOURAV KUMAR</t>
+          <t>SUDHAKAR</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1723,16 +1693,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>84681870.48999998</v>
+        <v>81363555.09</v>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>98.54457701174003</v>
+        <v>84.83</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1747,150 +1717,142 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>11015.58</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>P261</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="n">
-        <v>35109</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SUBHASH CHAND</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BKT1</t>
+          <t>BKT0</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30523530.77999999</v>
+        <v>85024837.45999999</v>
       </c>
       <c r="D19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>401</v>
+        <v>2126</v>
       </c>
       <c r="F19" t="n">
-        <v>69.51116708261756</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>20.03320894975441</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9.090909090909092</v>
+        <v>8.33</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4541.34</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="n">
-        <v>32143</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SUDHAKAR</t>
+          <t>SUKHVINDER SINGH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BKT0</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>81363555.09</v>
+        <v>27850017.59</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>84.82985200640894</v>
+        <v>77.53</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>18.32</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1904,145 +1866,139 @@
       <c r="L20" t="n">
         <v>0</v>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>P126</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="n">
-        <v>32587</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SUKHVINDER SINGH</t>
+          <t>TAJENDRA SINGH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BKT0</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>85024837.45999999</v>
+        <v>9911622.050000001</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>2126</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>90.15456551276775</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Deduction of 10%</t>
+        </is>
       </c>
       <c r="I21" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>4541.340000000001</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>P168</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="n">
-        <v>29486</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SUKHVINDER SINGH</t>
+          <t>TAJENDRA SINGH</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BKT1</t>
+          <t>BKT2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>27850017.59</v>
+        <v>1921240</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>77.53286252053675</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.32460469192831</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2056,39 +2012,35 @@
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>P168</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="n">
-        <v>29486</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2099,14 +2051,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BKT1</t>
+          <t>BKT3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9911622.050000001</v>
+        <v>1765526.64</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2117,10 +2069,8 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2134,39 +2084,35 @@
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="n">
-        <v>32740</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2177,11 +2123,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BKT2</t>
+          <t>BKT4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1921240</v>
+        <v>489693</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
@@ -2210,39 +2156,35 @@
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="n">
-        <v>32740</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2253,14 +2195,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BKT3</t>
+          <t>BKT5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1765526.64</v>
+        <v>2298733</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2286,39 +2228,35 @@
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="n">
-        <v>32740</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2329,14 +2267,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BKT4</t>
+          <t>BKT7</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>489693</v>
+        <v>1180938.14</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2362,66 +2300,62 @@
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="n">
-        <v>32740</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TAJENDRA SINGH</t>
+          <t>VIJAY KUMAR</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BKT5</t>
+          <t>BKT1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2298733</v>
+        <v>28765795.9</v>
       </c>
       <c r="D27" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2438,191 +2372,35 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>P162</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>FOS</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>FOS</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="n">
-        <v>32740</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>TAJENDRA SINGH</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BKT7</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1180938.14</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>P064</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="n">
-        <v>32740</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>VIJAY KUMAR</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BKT1</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>28765795.9</v>
-      </c>
-      <c r="D29" t="n">
-        <v>17</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>75.67569760863108</v>
-      </c>
-      <c r="G29" t="n">
-        <v>16.3953340154235</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>P270</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>P162</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>HL</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="n">
-        <v>27824</v>
+          <t>HL</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Main Website/media/IDFC_HL/FOS Salary/BKT-WISE PAYOUT.xlsx
+++ b/Main Website/media/IDFC_HL/FOS Salary/BKT-WISE PAYOUT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,70 +456,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>BOUNCING AMT.</t>
+          <t>Performance</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Performance</t>
+          <t>RB+NM%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>RB+NM%</t>
+          <t>PER PAID CASE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>EXTRA INCENTIVE</t>
+          <t>RB PAYOUT</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PENALTY_CHARGES</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PENALTY_PAYOUT</t>
+          <t>EMPLOYEE_ID</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>PER PAID CASE</t>
+          <t>MANAGER_ID</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>RB PAYOUT</t>
+          <t>DESIGNATION</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>EMPLOYEE_ID</t>
+          <t>EMPLOYEE_STATUS</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MANAGER_ID</t>
+          <t>PROCESS</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>DESIGNATION</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>EMPLOYEE_STATUS</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PROCESS</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>DEPARTMENT</t>
         </is>
@@ -543,57 +528,44 @@
         <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>5.31</v>
       </c>
       <c r="G2" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
         <v>4950.08</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>P269</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>P269</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -617,55 +589,44 @@
         <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>204</v>
+        <v>77.83</v>
       </c>
       <c r="F3" t="n">
-        <v>77.83</v>
+        <v>26.18</v>
       </c>
       <c r="G3" t="n">
-        <v>26.18</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
         <v>3600</v>
       </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>P138</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>P138</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -689,55 +650,44 @@
         <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>89.98999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>89.98999999999999</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5377.81</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5377.81</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>P019</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>P019</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -761,55 +711,44 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>93.72</v>
       </c>
       <c r="F5" t="n">
-        <v>93.72</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>6149.02</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6149.02</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>P111</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>P111</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -833,55 +772,44 @@
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>94.51000000000001</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>3688.14</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3688.14</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>P058</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>P058</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -905,55 +833,44 @@
         <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>93.45999999999999</v>
+        <v>25.58</v>
       </c>
       <c r="G7" t="n">
-        <v>25.58</v>
+        <v>7023.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7023.7</v>
-      </c>
-      <c r="L7" t="n">
         <v>2000</v>
       </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>P058</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>P058</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -977,57 +894,46 @@
         <v>17</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>90.48999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="G8" t="n">
-        <v>7.77</v>
+        <v>3249.23</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3249.23</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>P112</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>P112</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
     </row>
@@ -1049,55 +955,44 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>96.20999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>96.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4883.16</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4883.16</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1121,55 +1016,44 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>92.41</v>
       </c>
       <c r="F10" t="n">
-        <v>92.41</v>
+        <v>29.77</v>
       </c>
       <c r="G10" t="n">
-        <v>29.77</v>
+        <v>2362.88</v>
       </c>
       <c r="H10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2362.88</v>
-      </c>
-      <c r="L10" t="n">
         <v>1500</v>
       </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>P020</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P020</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1193,57 +1077,44 @@
         <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>94.59</v>
       </c>
       <c r="F11" t="n">
-        <v>94.59</v>
+        <v>6.5</v>
       </c>
       <c r="G11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
         <v>6152.26</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>P117</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>P117</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1267,55 +1138,44 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>93.25</v>
       </c>
       <c r="F12" t="n">
-        <v>93.25</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>5513.91</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5513.91</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1339,55 +1199,44 @@
         <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>17.16</v>
       </c>
       <c r="G13" t="n">
-        <v>17.16</v>
+        <v>4066.64</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4066.64</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>P264</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>P264</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1411,55 +1260,44 @@
         <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>93.7</v>
       </c>
       <c r="F14" t="n">
-        <v>93.7</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8841.35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8841.35</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>P119</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1483,55 +1321,44 @@
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>19.6</v>
       </c>
       <c r="G15" t="n">
-        <v>19.6</v>
+        <v>1827.16</v>
       </c>
       <c r="H15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1827.16</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>P119</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>P119</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1555,55 +1382,44 @@
         <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>98.54000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>98.54000000000001</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>11015.58</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>11015.58</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>P261</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>P261</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1627,55 +1443,44 @@
         <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>401</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>69.51000000000001</v>
+        <v>20.03</v>
       </c>
       <c r="G17" t="n">
-        <v>20.03</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>P084</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>P084</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1699,10 +1504,10 @@
         <v>15</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>84.83</v>
       </c>
       <c r="F18" t="n">
-        <v>84.83</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1710,44 +1515,33 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>P126</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>P126</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1771,55 +1565,44 @@
         <v>24</v>
       </c>
       <c r="E19" t="n">
-        <v>2126</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>90.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4541.34</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4541.34</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>P168</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1843,55 +1626,44 @@
         <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>77.53</v>
       </c>
       <c r="F20" t="n">
-        <v>77.53</v>
+        <v>18.32</v>
       </c>
       <c r="G20" t="n">
-        <v>18.32</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P168</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>O72</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>P168</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -1923,49 +1695,36 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Deduction of 10%</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2000,44 +1759,33 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2072,44 +1820,33 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2144,44 +1881,33 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2216,44 +1942,33 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2288,44 +2003,33 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>P064</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>P064</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
@@ -2349,55 +2053,44 @@
         <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>75.68000000000001</v>
+        <v>16.4</v>
       </c>
       <c r="G27" t="n">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>P270</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>O50</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>P270</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>P162</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>FOS</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>IDFC</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
         <is>
           <t>HL</t>
         </is>
